--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13035" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -30,16 +24,49 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Asset</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Description (Assets will always overwrite other config)</t>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>InHouse_Process4</t>
+  </si>
+  <si>
+    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
+  </si>
+  <si>
+    <t>logF_BusinessProcessName</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
+  </si>
+  <si>
+    <t>System1 URL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com</t>
+  </si>
+  <si>
+    <t>System1 Credential</t>
+  </si>
+  <si>
+    <t>ACME_Credential</t>
+  </si>
+  <si>
+    <t>ReportsDownloadPath</t>
+  </si>
+  <si>
+    <t>E:\UiPath\RE_Assignment2</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
     <t>ExScreenshotsFolderPath</t>
@@ -57,6 +84,9 @@
     <t xml:space="preserve">Processing Transaction Number: </t>
   </si>
   <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
     <t>LogMessage_GetTransactionDataError</t>
   </si>
   <si>
@@ -72,10 +102,16 @@
     <t>Transaction Successful.</t>
   </si>
   <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
     <t>LogMessage_BusinessRuleException</t>
   </si>
   <si>
     <t>Business rule exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
   </si>
   <si>
     <t>LogMessage_ApplicationException</t>
@@ -84,84 +120,395 @@
     <t>System exception.</t>
   </si>
   <si>
-    <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
     <t>Static part of logging message. Processed Transaction failed with application exception.</t>
   </si>
   <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
+    <t>Asset</t>
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>Description (Assets will always overwrite other config)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -169,32 +516,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -243,7 +877,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -276,26 +910,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -328,23 +945,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,32 +1086,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -545,41 +1140,62 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
+    <row r="2" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
-      <c r="A4" t="s">
-        <v>20</v>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1560,29 +2176,34 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://acme-test.uipath.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1616,91 +2237,91 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" ht="30" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2673,39 +3294,40 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
+    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2730,21 +3352,21 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -3730,7 +4352,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13035" windowHeight="7560" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>ReportsDownloadPath</t>
   </si>
   <si>
-    <t>E:\UiPath\RE_Assignment2</t>
+    <t>E:\New folder (3)</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
@@ -137,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,12 +152,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -174,6 +168,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -181,7 +198,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,8 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,14 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -231,9 +241,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -263,30 +265,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +287,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -308,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,7 +317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +335,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +419,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,139 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +508,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,15 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -565,17 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +600,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -617,162 +611,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,12 +772,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1094,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1141,13 +1131,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1158,7 +1148,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1166,7 +1156,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2191,7 +2181,7 @@
   <sheetPr/>
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -48,7 +48,7 @@
     <t>System1 URL</t>
   </si>
   <si>
-    <t>https://acme-test.uipath.com</t>
+    <t>https://acme-test.uipath.com/</t>
   </si>
   <si>
     <t>System1 Credential</t>
@@ -60,7 +60,7 @@
     <t>ReportsDownloadPath</t>
   </si>
   <si>
-    <t>E:\New folder (3)</t>
+    <t>E:\UiPath\RE_Assignment2\Generate_Yearly_Report_Performer\Data\Temp</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
@@ -137,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -159,7 +159,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,22 +174,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,15 +196,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,14 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -256,6 +264,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -265,14 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,24 +294,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,13 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,19 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,37 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,31 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,11 +511,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,41 +594,27 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,136 +626,133 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,13 +1085,13 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="1" max="1" width="30.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="68.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
     <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
@@ -2168,7 +2168,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://acme-test.uipath.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://acme-test.uipath.com/" tooltip="https://acme-test.uipath.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
